--- a/HW2v2.xlsx
+++ b/HW2v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Qatest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Test-repo_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C9683B-D44E-4773-ADC0-6573699A492C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3F57D-2971-4035-B6A7-5B1A6F1938D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -162,13 +162,22 @@
   </si>
   <si>
     <t>логаут аккаунта почтового сервиса</t>
+  </si>
+  <si>
+    <t>изменить 1</t>
+  </si>
+  <si>
+    <t>изменить 2</t>
+  </si>
+  <si>
+    <t>изменить 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +189,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,65 +458,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -784,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +818,7 @@
     <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,12 +828,12 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
@@ -826,18 +841,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -845,16 +860,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="22" t="s">
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
@@ -862,327 +877,362 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="25" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="25" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="28" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="9" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="10" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="10" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A3:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -1199,40 +1249,15 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A3:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{E6198020-373E-4734-9095-A095DF6A8B79}"/>
   </hyperlinks>

--- a/HW2v2.xlsx
+++ b/HW2v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Test-repo_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F3F57D-2971-4035-B6A7-5B1A6F1938D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53E738-C21A-4182-8E3A-DB48631E4668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>изменить 3</t>
+  </si>
+  <si>
+    <t>изменить 4</t>
+  </si>
+  <si>
+    <t>изменить 5</t>
   </si>
 </sst>
 </file>
@@ -464,25 +470,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,25 +515,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,12 +834,12 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
@@ -847,12 +853,12 @@
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
@@ -861,15 +867,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="23" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
@@ -878,260 +884,266 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="21" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="27" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="25" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
@@ -1139,88 +1151,83 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A3:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -1234,28 +1241,33 @@
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A3:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
